--- a/Pull Request Here/Shella Backgrounds - 2853407446/Shella Backgrounds - 2853407446.xlsx
+++ b/Pull Request Here/Shella Backgrounds - 2853407446/Shella Backgrounds - 2853407446.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\Shella Backgrounds - 2853407446\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637A3053-99B7-4F59-8917-412E90A2EB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0464E744-F465-4DF3-83F9-EF0C59A76FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="109">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -220,166 +220,167 @@
     <t>ShellaBackgrounds</t>
   </si>
   <si>
+    <t>Keyed+HideTranslationCredits</t>
+  </si>
+  <si>
+    <t>HideTranslationCredits</t>
+  </si>
+  <si>
+    <t>Keyed+HideTranslationCreditsTooltip</t>
+  </si>
+  <si>
+    <t>HideTranslationCreditsTooltip</t>
+  </si>
+  <si>
+    <t>Keyed+HideDLCInfos</t>
+  </si>
+  <si>
+    <t>HideDLCInfos</t>
+  </si>
+  <si>
+    <t>Keyed+HideDLCInfosTooltip</t>
+  </si>
+  <si>
+    <t>HideDLCInfosTooltip</t>
+  </si>
+  <si>
+    <t>Vanilla Backgrounds Expanded</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class [Not chosen]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patches.VBE.BackgroundImageDef</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Royalty replacement.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shella Milira MoeLotl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hide translation credits in main menu to prevent overlapping?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>For non-English players.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hide DLC infos in main menu to prevent overlapping?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click to hide DLC buttons at the left bottom corner.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면에서 "DLC 정보"를 숨길까요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이데올로기를 교체합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로얄티를 교체합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이오테크를 교체합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아노말리를 교체합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>래비와 드라고니안 종족입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>민초와 모요 종족입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>키이로와 미호 종족입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠린과 랫킨 종족입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠린과 드라고니안과 랫킨 종족입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀리라와 모에로틀 종족입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀라 《로얄티》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀라 《이데올로기》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀라 《바이오테크》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀라 《아노말리》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀라 《래비 &amp; 드라고니안》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀라 《민초 &amp; 모요》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀라 《키이로 &amp; 미호》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀라 《쿠린 &amp; 랫킨》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀라 《쿠린 &amp; 드라고니안 &amp; 랫킨》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀라 《밀리라 &amp; 모에로틀》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면에서 "공식 번역자 목록"을 숨길까요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 상단의 "공식 번역자 목록"을 숨기려면 클릭하세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 하단 모서리의 "DLC 정보"를 숨기려면 클릭하세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Shella Backgrounds</t>
-  </si>
-  <si>
-    <t>Keyed+HideTranslationCredits</t>
-  </si>
-  <si>
-    <t>HideTranslationCredits</t>
-  </si>
-  <si>
-    <t>Keyed+HideTranslationCreditsTooltip</t>
-  </si>
-  <si>
-    <t>HideTranslationCreditsTooltip</t>
-  </si>
-  <si>
-    <t>Keyed+HideDLCInfos</t>
-  </si>
-  <si>
-    <t>HideDLCInfos</t>
-  </si>
-  <si>
-    <t>Keyed+HideDLCInfosTooltip</t>
-  </si>
-  <si>
-    <t>HideDLCInfosTooltip</t>
-  </si>
-  <si>
-    <t>Vanilla Backgrounds Expanded</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Class [Not chosen]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Patches.VBE.BackgroundImageDef</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keyed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Royalty replacement.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shella Milira MoeLotl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hide translation credits in main menu to prevent overlapping?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>For non-English players.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hide DLC infos in main menu to prevent overlapping?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Click to hide DLC buttons at the left bottom corner.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 화면에서 "DLC 정보"를 숨길까요?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이데올로기를 교체합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>로얄티를 교체합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>바이오테크를 교체합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아노말리를 교체합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>래비와 드라고니안 종족입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>민초와 모요 종족입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>키이로와 미호 종족입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿠린과 랫킨 종족입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿠린과 드라고니안과 랫킨 종족입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>밀리라와 모에로틀 종족입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀라 《로얄티》</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀라 《이데올로기》</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀라 《바이오테크》</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀라 《아노말리》</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀라 《래비 &amp; 드라고니안》</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀라 《민초 &amp; 모요》</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀라 《키이로 &amp; 미호》</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀라 《쿠린 &amp; 랫킨》</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀라 《쿠린 &amp; 드라고니안 &amp; 랫킨》</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀라 《밀리라 &amp; 모에로틀》</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 화면에서 "공식 번역자 목록"을 숨길까요?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽 상단의 "공식 번역자 목록"을 숨기려면 클릭하세요.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽 하단 모서리의 "DLC 정보"를 숨기려면 클릭하세요.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -763,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -783,19 +784,19 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -803,19 +804,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -823,19 +824,19 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -843,19 +844,19 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -863,19 +864,19 @@
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -883,19 +884,19 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -903,19 +904,19 @@
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -923,19 +924,19 @@
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -943,19 +944,19 @@
         <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -963,19 +964,19 @@
         <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -983,19 +984,19 @@
         <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1003,19 +1004,19 @@
         <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1023,19 +1024,19 @@
         <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1043,19 +1044,19 @@
         <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1063,19 +1064,19 @@
         <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1083,19 +1084,19 @@
         <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1103,19 +1104,19 @@
         <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1123,19 +1124,19 @@
         <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1143,19 +1144,19 @@
         <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1163,19 +1164,19 @@
         <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1189,76 +1190,78 @@
         <v>65</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
